--- a/Fichas.xlsx
+++ b/Fichas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Italo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99640C66-7F26-4FA7-A9AC-C694EE781EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24AB2F6-F96C-466C-9F62-43A160A5FA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" xr2:uid="{A9B6F7AB-76B7-4397-9500-B4BAB3A994DA}"/>
   </bookViews>
@@ -1548,10 +1548,10 @@
     <t>***</t>
   </si>
   <si>
-    <t>12.345.678-9</t>
-  </si>
-  <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>15.228.458-6</t>
   </si>
 </sst>
 </file>
@@ -2083,8 +2083,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,20 +4785,20 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="C113" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G113" s="9" t="e" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">FormatearRUT(Tabla1[[#This Row],[Rut]])</f>
